--- a/阶段提交/5.测试阶段/功能测试用例.xlsx
+++ b/阶段提交/5.测试阶段/功能测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
   <si>
     <t>显示文章总数量</t>
   </si>
@@ -24,9 +24,6 @@
     <t>显示友情链接数量</t>
   </si>
   <si>
-    <t>显示留言总数量</t>
-  </si>
-  <si>
     <t>显示最新文章</t>
   </si>
   <si>
@@ -127,18 +124,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不显示留言总数量，跳转登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>仪表盘显示文章总数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>仪表盘显示留言总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>仪表盘显示友情链接总数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -731,9 +720,6 @@
     </r>
   </si>
   <si>
-    <t>复制图片到内容，发表文章</t>
-  </si>
-  <si>
     <t>提示标题长度错误</t>
   </si>
   <si>
@@ -1394,9 +1380,6 @@
     </r>
   </si>
   <si>
-    <t>复制图片到内容，存为草稿</t>
-  </si>
-  <si>
     <t>提示发表成功</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2033,6 +2016,28 @@
   </si>
   <si>
     <t>显示文章标题</t>
+  </si>
+  <si>
+    <t>仪表盘显示日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示日期，跳转登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制图片代码到内容，存为草稿</t>
+  </si>
+  <si>
+    <t>复制图片代码到内容，存为草稿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制图片代码到内容，发表文章</t>
   </si>
 </sst>
 </file>
@@ -2103,12 +2108,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,6 +2116,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2421,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2435,42 +2440,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2479,13 +2484,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2494,13 +2499,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2509,13 +2514,13 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2524,13 +2529,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2539,13 +2544,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2554,14 +2559,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>0</v>
@@ -2573,13 +2578,13 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
@@ -2588,17 +2593,17 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
@@ -2607,13 +2612,13 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
@@ -2622,14 +2627,14 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
@@ -2641,13 +2646,13 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
@@ -2656,17 +2661,17 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
@@ -2675,13 +2680,13 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
@@ -2690,17 +2695,17 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
@@ -2709,13 +2714,13 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
@@ -2724,13 +2729,13 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
@@ -2739,13 +2744,13 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
@@ -2754,13 +2759,13 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
@@ -2769,13 +2774,13 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
@@ -2784,13 +2789,13 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
@@ -2799,13 +2804,13 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
@@ -2814,13 +2819,13 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
@@ -2829,13 +2834,13 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
@@ -2844,17 +2849,17 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>7</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
+      <c r="C26" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
@@ -2863,13 +2868,13 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
@@ -2878,13 +2883,13 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
@@ -2893,13 +2898,13 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
@@ -2908,13 +2913,13 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
@@ -2923,13 +2928,13 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
@@ -2938,13 +2943,13 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
@@ -2953,13 +2958,13 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
@@ -2968,13 +2973,13 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="1"/>
@@ -2983,13 +2988,13 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="1"/>
@@ -2998,17 +3003,17 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="7">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
+      <c r="C36" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3017,13 +3022,13 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3032,13 +3037,13 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3047,17 +3052,17 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>9</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
+      <c r="C39" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3066,13 +3071,13 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3081,13 +3086,13 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
@@ -3096,13 +3101,13 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
@@ -3111,13 +3116,13 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
@@ -3126,13 +3131,13 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
@@ -3141,13 +3146,13 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
@@ -3156,13 +3161,13 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
@@ -3171,13 +3176,13 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
@@ -3186,13 +3191,13 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
@@ -3201,13 +3206,13 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
@@ -3216,13 +3221,13 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
@@ -3231,13 +3236,13 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
@@ -3246,13 +3251,13 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
@@ -3261,13 +3266,13 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
@@ -3276,13 +3281,13 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
@@ -3291,13 +3296,13 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
@@ -3306,13 +3311,13 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
@@ -3321,13 +3326,13 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
@@ -3336,13 +3341,13 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
@@ -3351,13 +3356,13 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
@@ -3366,13 +3371,13 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="3" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
@@ -3381,17 +3386,17 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="7">
         <v>10</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3400,13 +3405,13 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3415,13 +3420,13 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3430,13 +3435,13 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3445,13 +3450,13 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3460,17 +3465,17 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="7">
         <v>11</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>80</v>
+      <c r="C66" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3479,13 +3484,13 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3494,13 +3499,13 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3509,13 +3514,13 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3524,13 +3529,13 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3539,17 +3544,17 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="7">
         <v>12</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>86</v>
+      <c r="C71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
@@ -3558,13 +3563,13 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="6" t="s">
-        <v>87</v>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
@@ -3573,13 +3578,13 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="6" t="s">
-        <v>99</v>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
@@ -3588,13 +3593,13 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
@@ -3603,13 +3608,13 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="6" t="s">
-        <v>89</v>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
@@ -3618,13 +3623,13 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="6" t="s">
-        <v>90</v>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
@@ -3633,13 +3638,13 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="6" t="s">
-        <v>91</v>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
@@ -3648,13 +3653,13 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
@@ -3663,17 +3668,17 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="7">
         <v>13</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>100</v>
+      <c r="C79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3682,13 +3687,13 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="6" t="s">
-        <v>86</v>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
@@ -3697,13 +3702,13 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="6" t="s">
-        <v>87</v>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
@@ -3712,13 +3717,13 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="6" t="s">
-        <v>99</v>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
@@ -3727,13 +3732,13 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
@@ -3742,13 +3747,13 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="6" t="s">
-        <v>89</v>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
@@ -3757,13 +3762,13 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="6" t="s">
-        <v>90</v>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
@@ -3772,13 +3777,13 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="6" t="s">
-        <v>91</v>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
@@ -3787,13 +3792,13 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
@@ -3802,17 +3807,17 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="7">
         <v>14</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>104</v>
+      <c r="C88" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3821,13 +3826,13 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="7" t="s">
-        <v>106</v>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -3836,13 +3841,13 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="7" t="s">
-        <v>107</v>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -3851,17 +3856,17 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="7">
         <v>15</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>109</v>
+      <c r="C91" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3870,13 +3875,13 @@
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="7" t="s">
-        <v>107</v>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -3885,17 +3890,17 @@
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="7">
         <v>16</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>113</v>
+      <c r="C93" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3904,13 +3909,13 @@
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="8" t="s">
-        <v>115</v>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -3919,13 +3924,13 @@
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="8" t="s">
-        <v>117</v>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -3934,13 +3939,13 @@
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="8" t="s">
-        <v>118</v>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -3949,17 +3954,17 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="7">
         <v>17</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>55</v>
+      <c r="C97" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -3968,13 +3973,13 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="8" t="s">
-        <v>112</v>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3983,17 +3988,17 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="7">
         <v>18</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>55</v>
+      <c r="C99" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4002,13 +4007,13 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="8" t="s">
-        <v>112</v>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4017,17 +4022,17 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="7">
         <v>19</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>55</v>
+      <c r="C101" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4036,13 +4041,13 @@
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="8" t="s">
-        <v>112</v>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4051,17 +4056,17 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="7">
         <v>20</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>55</v>
+      <c r="C103" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4070,25 +4075,37 @@
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="8" t="s">
-        <v>112</v>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B39:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
@@ -4105,24 +4122,12 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="B26:B35"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B39:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
